--- a/Docs/MX-28 Control Table.xlsx
+++ b/Docs/MX-28 Control Table.xlsx
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -1742,12 +1742,12 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
